--- a/MAGISTERKA/ankieta.xlsx
+++ b/MAGISTERKA/ankieta.xlsx
@@ -770,15 +770,17 @@
   </sheetPr>
   <dimension ref="A1:BM146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AQ1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AQ1" activeCellId="0" sqref="AQ1"/>
-      <selection pane="bottomLeft" activeCell="AU117" activeCellId="0" sqref="AU117"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BB1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="BB1" activeCellId="0" sqref="BB1"/>
+      <selection pane="bottomLeft" activeCell="BE90" activeCellId="0" sqref="BE90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="1" style="1" width="18.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="1" style="1" width="18.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="96.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="55" style="1" width="18.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
